--- a/src/main/java/com/ep/test/data/TestCases.xlsx
+++ b/src/main/java/com/ep/test/data/TestCases.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>Sr No</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>Reset Password Link Should be sent to registred email Id</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -230,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -248,19 +254,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -286,7 +279,7 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -314,7 +307,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Excel Built-in Hyperlink" xfId="2"/>
@@ -633,7 +625,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -674,7 +666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="36.75" customHeight="1">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -697,7 +689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="24" customHeight="1">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -719,9 +711,11 @@
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="H3" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" customHeight="1">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -743,8 +737,11 @@
       <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -765,6 +762,9 @@
       </c>
       <c r="G5" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -789,8 +789,11 @@
       <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -812,8 +815,11 @@
       <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" customHeight="1">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -835,8 +841,11 @@
       <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -858,8 +867,11 @@
       <c r="G9" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" customHeight="1">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -881,8 +893,11 @@
       <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -903,6 +918,9 @@
       </c>
       <c r="G11" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8">

--- a/src/main/java/com/ep/test/data/TestCases.xlsx
+++ b/src/main/java/com/ep/test/data/TestCases.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14895" windowHeight="4155" tabRatio="236"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14895" windowHeight="4155" tabRatio="236" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCase" sheetId="40" r:id="rId1"/>
+    <sheet name="TestSuite" sheetId="41" r:id="rId1"/>
+    <sheet name="TestCase" sheetId="40" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Degree">#REF!</definedName>
     <definedName name="PartnerCollege">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>Sr No</t>
   </si>
@@ -143,10 +144,7 @@
     <t>Reset Password Link Should be sent to registred email Id</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -621,11 +619,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="83.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -637,7 +681,7 @@
     <col min="5" max="5" width="20.140625" style="5" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="71" style="9" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="11.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.85546875" style="5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -711,9 +755,6 @@
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1">
       <c r="A4" s="10">
@@ -737,9 +778,6 @@
       <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1">
       <c r="A5" s="10">
@@ -763,9 +801,6 @@
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="10">
@@ -789,9 +824,6 @@
       <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="10">
@@ -815,9 +847,6 @@
       <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1">
       <c r="A8" s="10">
@@ -841,9 +870,6 @@
       <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="10">
@@ -867,9 +893,6 @@
       <c r="G9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" customHeight="1">
       <c r="A10" s="10">
@@ -893,9 +916,6 @@
       <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="10">
@@ -918,9 +938,6 @@
       </c>
       <c r="G11" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8">

--- a/src/main/java/com/ep/test/data/TestCases.xlsx
+++ b/src/main/java/com/ep/test/data/TestCases.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14895" windowHeight="4155" tabRatio="236" activeTab="1"/>
+    <workbookView activeTab="1" tabRatio="236" windowHeight="4155" windowWidth="14895" xWindow="0" yWindow="2520"/>
   </bookViews>
   <sheets>
-    <sheet name="TestSuite" sheetId="41" r:id="rId1"/>
-    <sheet name="TestCase" sheetId="40" r:id="rId2"/>
+    <sheet name="TestSuite" r:id="rId1" sheetId="41"/>
+    <sheet name="TestCase" r:id="rId2" sheetId="40"/>
   </sheets>
   <definedNames>
     <definedName name="Degree">#REF!</definedName>
     <definedName name="PartnerCollege">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>Sr No</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Parent Registration  with Valid Details</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>StudentFormFill</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -259,51 +259,53 @@
     </border>
   </borders>
   <cellStyleXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="165"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="164"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="164"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="5">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -315,14 +317,14 @@
     <cellStyle name="Excel Built-in Normal 3" xfId="11"/>
     <cellStyle name="Heading" xfId="6"/>
     <cellStyle name="Heading1" xfId="7"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="8"/>
     <cellStyle name="Normal 3" xfId="1"/>
     <cellStyle name="Result" xfId="9"/>
     <cellStyle name="Result2" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -339,10 +341,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -498,7 +500,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -507,13 +509,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -523,7 +525,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -532,7 +534,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -541,7 +543,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -551,12 +553,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -587,7 +589,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -606,7 +608,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -622,14 +624,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="C21" pane="bottomLeft" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="83.42578125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="83.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -640,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -659,7 +661,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -667,21 +669,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="I7" pane="bottomLeft" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="71" style="9" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" style="4" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="20.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="8" width="71.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="11.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="6.76171875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -700,24 +702,24 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+    <row customHeight="1" ht="20.25" r="2" spans="1:8">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -726,21 +728,21 @@
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A3" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.75" r="3" spans="1:8">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -749,451 +751,457 @@
       <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A4" s="10">
+      <c r="H3" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="16.5" r="4" spans="1:8">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A5" s="10">
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="16.5" r="5" spans="1:8">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="10">
+    <row customHeight="1" ht="15.75" r="7" spans="1:8">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A8" s="10">
+    <row customHeight="1" ht="16.5" r="8" spans="1:8">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="10">
+    <row customHeight="1" ht="15.75" r="9" spans="1:8">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A10" s="10">
+    <row customHeight="1" ht="17.25" r="10" spans="1:8">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="10">
+    <row customHeight="1" ht="15.75" r="11" spans="1:8">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="10"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="9"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="10"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="9"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="10"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="9"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="10"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="9"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="10"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="9"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="10"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="9"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="10"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="9"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="10"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="9"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="10"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="9"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="10"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="9"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="10"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="9"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="10"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="9"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="10"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="9"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="10"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="9"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="10"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="9"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="10"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="9"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="10"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="9"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="10"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="9"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="10"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="9"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="10"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="9"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="10"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="9"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="10"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="9"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="10"/>
-      <c r="C34" s="7"/>
+      <c r="A34" s="9"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="10"/>
-      <c r="C35" s="7"/>
+      <c r="A35" s="9"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="10"/>
-      <c r="C36" s="7"/>
+      <c r="A36" s="9"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="10"/>
-      <c r="C37" s="7"/>
+      <c r="A37" s="9"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="10"/>
-      <c r="C38" s="7"/>
+      <c r="A38" s="9"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="10"/>
-      <c r="C39" s="7"/>
+      <c r="A39" s="9"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="10"/>
-      <c r="C40" s="7"/>
+      <c r="A40" s="9"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="10"/>
-      <c r="C41" s="7"/>
+      <c r="A41" s="9"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="10"/>
-      <c r="C42" s="7"/>
+      <c r="A42" s="9"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="10"/>
-      <c r="C43" s="7"/>
+      <c r="A43" s="9"/>
+      <c r="C43" s="6"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="10"/>
-      <c r="C44" s="7"/>
+      <c r="A44" s="9"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="10"/>
-      <c r="C45" s="7"/>
+      <c r="A45" s="9"/>
+      <c r="C45" s="6"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="10"/>
-      <c r="C46" s="7"/>
+      <c r="A46" s="9"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="10"/>
-      <c r="C47" s="7"/>
+      <c r="A47" s="9"/>
+      <c r="C47" s="6"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="10"/>
-      <c r="C48" s="7"/>
+      <c r="A48" s="9"/>
+      <c r="C48" s="6"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="10"/>
-      <c r="C49" s="7"/>
+      <c r="A49" s="9"/>
+      <c r="C49" s="6"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="10"/>
-      <c r="C50" s="7"/>
+      <c r="A50" s="9"/>
+      <c r="C50" s="6"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="10"/>
-      <c r="C51" s="7"/>
+      <c r="A51" s="9"/>
+      <c r="C51" s="6"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="10"/>
-      <c r="C52" s="7"/>
+      <c r="A52" s="9"/>
+      <c r="C52" s="6"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="10"/>
-      <c r="C53" s="7"/>
+      <c r="A53" s="9"/>
+      <c r="C53" s="6"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/com/ep/test/data/TestCases.xlsx
+++ b/src/main/java/com/ep/test/data/TestCases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
   <si>
     <t>Sr No</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="I7" pane="bottomLeft" sqref="I7"/>
+      <selection activeCell="L10" pane="bottomLeft" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -783,7 +786,7 @@
       <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="5" t="s">
         <v>41</v>
       </c>
     </row>

--- a/src/main/java/com/ep/test/data/TestCases.xlsx
+++ b/src/main/java/com/ep/test/data/TestCases.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="236" windowHeight="4155" windowWidth="14895" xWindow="0" yWindow="2520"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14895" windowHeight="4155" tabRatio="236" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TestSuite" r:id="rId1" sheetId="41"/>
-    <sheet name="TestCase" r:id="rId2" sheetId="40"/>
+    <sheet name="TestSuite" sheetId="41" r:id="rId1"/>
+    <sheet name="TestCase" sheetId="40" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Degree">#REF!</definedName>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
   <si>
     <t>Sr No</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -262,52 +259,52 @@
     </border>
   </borders>
   <cellStyleXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="165"/>
-    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="164"/>
-    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="164"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="5">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -320,14 +317,14 @@
     <cellStyle name="Excel Built-in Normal 3" xfId="11"/>
     <cellStyle name="Heading" xfId="6"/>
     <cellStyle name="Heading1" xfId="7"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="8"/>
     <cellStyle name="Normal 3" xfId="1"/>
     <cellStyle name="Result" xfId="9"/>
     <cellStyle name="Result2" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -344,10 +341,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -503,7 +500,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -512,13 +509,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -528,7 +525,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -537,7 +534,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -546,7 +543,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -556,12 +553,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -592,7 +589,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -611,7 +608,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -627,14 +624,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="C21" pane="bottomLeft" sqref="C21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="83.42578125" collapsed="true"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -664,7 +662,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -672,21 +670,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="L10" pane="bottomLeft" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="4" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="25.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="9.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="5" width="20.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="8" width="71.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="11.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="6.76171875" collapsed="true"/>
+    <col min="1" max="1" width="5.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="52.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -715,7 +713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="20.25" r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -737,8 +735,11 @@
       <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row customHeight="1" ht="18.75" r="3" spans="1:8">
+      <c r="H2" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -764,7 +765,7 @@
         <v>41</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="16.5" customHeight="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -790,7 +791,7 @@
         <v>41</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="16.5" customHeight="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -811,6 +812,9 @@
       </c>
       <c r="G5" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -835,8 +839,11 @@
       <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="7" spans="1:8">
+      <c r="H6" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row customHeight="1" ht="16.5" r="8" spans="1:8">
+      <c r="H7" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" customHeight="1">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -881,8 +891,11 @@
       <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="9" spans="1:8">
+      <c r="H8" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -904,8 +917,11 @@
       <c r="G9" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row customHeight="1" ht="17.25" r="10" spans="1:8">
+      <c r="H9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" customHeight="1">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -927,8 +943,11 @@
       <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="11" spans="1:8">
+      <c r="H10" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -949,6 +968,9 @@
       </c>
       <c r="G11" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1204,7 +1226,7 @@
       <c r="E53" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>